--- a/input_sample/M18025715H_stack_crown.xlsx
+++ b/input_sample/M18025715H_stack_crown.xlsx
@@ -58,43 +58,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>wr_eqv_cr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pce_wr_cr_chg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wr_br_cr_chg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cSLFG_wr_crn_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cSPRP_wr_crn_off_adj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cSPRP_wr_crn_off_adj2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cSPRP_wr_crn_off_adj3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wr_cr_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wr_cr_vrn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>br_grn_cr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wr_eqv_cr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pce_wr_cr_chg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wr_br_cr_chg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cSLFG_wr_crn_off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cSPRP_wr_crn_off_adj</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cSPRP_wr_crn_off_adj2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cSPRP_wr_crn_off_adj3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wr_cr_off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wr_cr_vrn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +428,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -463,34 +463,34 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
-      </c>
-      <c r="S1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
